--- a/tiletest.xlsx
+++ b/tiletest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20115" windowHeight="9795" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20115" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="65">
   <si>
     <t>read</t>
   </si>
@@ -214,6 +214,12 @@
   <si>
     <t>XVID</t>
   </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>27.8 for 4x6</t>
+  </si>
 </sst>
 </file>
 
@@ -558,24 +564,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="208021760"/>
-        <c:axId val="208035840"/>
+        <c:axId val="124967168"/>
+        <c:axId val="125304832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208021760"/>
+        <c:axId val="124967168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208035840"/>
+        <c:crossAx val="125304832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208035840"/>
+        <c:axId val="125304832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,19 +589,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208021760"/>
+        <c:crossAx val="124967168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -868,24 +875,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="208069376"/>
-        <c:axId val="208070912"/>
+        <c:axId val="125338368"/>
+        <c:axId val="125339904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208069376"/>
+        <c:axId val="125338368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208070912"/>
+        <c:crossAx val="125339904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208070912"/>
+        <c:axId val="125339904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,19 +900,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208069376"/>
+        <c:crossAx val="125338368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1092,24 +1100,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="208107776"/>
-        <c:axId val="208113664"/>
+        <c:axId val="125372672"/>
+        <c:axId val="125382656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208107776"/>
+        <c:axId val="125372672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208113664"/>
+        <c:crossAx val="125382656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208113664"/>
+        <c:axId val="125382656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,19 +1125,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208107776"/>
+        <c:crossAx val="125372672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1714,24 +1723,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="216323968"/>
-        <c:axId val="76683520"/>
+        <c:axId val="125578624"/>
+        <c:axId val="125588608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216323968"/>
+        <c:axId val="125578624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76683520"/>
+        <c:crossAx val="125588608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76683520"/>
+        <c:axId val="125588608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1748,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216323968"/>
+        <c:crossAx val="125578624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1752,7 +1761,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2175,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B54"/>
     </sheetView>
   </sheetViews>
@@ -3096,13 +3105,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -3112,8 +3121,11 @@
       <c r="D1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3126,8 +3138,11 @@
       <c r="D2">
         <v>13.6404</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3141,7 +3156,7 @@
         <v>13.6404</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3155,7 +3170,7 @@
         <v>13.9902</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3168,8 +3183,14 @@
       <c r="D5">
         <v>24.249600000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>25.9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -3183,7 +3204,7 @@
         <v>33.405099999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -3196,8 +3217,11 @@
       <c r="D7">
         <v>36.073799999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3211,7 +3235,7 @@
         <v>38.423699999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3225,7 +3249,7 @@
         <v>46.995399999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -3237,6 +3261,9 @@
       </c>
       <c r="D10">
         <v>50.43</v>
+      </c>
+      <c r="E10">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -8824,7 +8851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
